--- a/meta_data/samples for DESI and RNA extraction.xlsx
+++ b/meta_data/samples for DESI and RNA extraction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Forschung\GRP Perren_Marinoni\1. Group\2. People\1. Ilaria Marinoni\DESI and RNA extraction frozen PanNETs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/balu/Desktop/PanNet_Analysis/meta_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CD31B5-6A85-4661-A4AF-CB156EA3E000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2F3958-D8A9-514F-8A55-A50EB02A7F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -329,9 +329,6 @@
     <t>M-Stadium 2010</t>
   </si>
   <si>
-    <t>CA9 Primärtumoren</t>
-  </si>
-  <si>
     <t>Glut1 primärtumor</t>
   </si>
   <si>
@@ -768,6 +765,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>CA9 primary tumors</t>
   </si>
 </sst>
 </file>
@@ -930,11 +930,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -945,14 +944,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -969,18 +966,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -1006,70 +999,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1114,6 +1043,70 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -1143,7 +1136,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PW+ Search vom 12.06.2020"/>
@@ -3427,59 +3420,59 @@
   <dimension ref="A1:BC35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU34" sqref="AU34"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="4" customWidth="1"/>
-    <col min="9" max="15" width="9" style="4" customWidth="1"/>
-    <col min="16" max="16" width="15.625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9" style="4" customWidth="1"/>
-    <col min="18" max="18" width="22.625" style="3" customWidth="1"/>
-    <col min="19" max="23" width="9" style="4" customWidth="1"/>
-    <col min="24" max="24" width="12" style="4" customWidth="1"/>
-    <col min="25" max="25" width="15.75" style="4" customWidth="1"/>
-    <col min="26" max="26" width="14.875" style="4" customWidth="1"/>
-    <col min="27" max="27" width="8.375" style="4" customWidth="1"/>
-    <col min="28" max="28" width="7.5" style="4" customWidth="1"/>
-    <col min="29" max="29" width="20.25" style="4" customWidth="1"/>
-    <col min="30" max="30" width="8.125" style="4" customWidth="1"/>
-    <col min="31" max="32" width="9.75" style="4" customWidth="1"/>
-    <col min="33" max="33" width="8.5" style="4" customWidth="1"/>
-    <col min="34" max="34" width="8.125" style="4" customWidth="1"/>
-    <col min="35" max="35" width="17.25" style="4" customWidth="1"/>
-    <col min="36" max="36" width="30" style="4" customWidth="1"/>
-    <col min="37" max="37" width="13.375" style="4" customWidth="1"/>
-    <col min="38" max="38" width="6.875" style="4" customWidth="1"/>
-    <col min="39" max="39" width="22.25" style="4" customWidth="1"/>
-    <col min="40" max="40" width="19.25" style="4" customWidth="1"/>
-    <col min="41" max="41" width="13.875" style="4" customWidth="1"/>
-    <col min="42" max="42" width="9" style="4" customWidth="1"/>
-    <col min="43" max="43" width="13" style="4" customWidth="1"/>
-    <col min="44" max="44" width="16.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="43.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="43.75" style="4" customWidth="1"/>
-    <col min="49" max="49" width="24.625" style="4" customWidth="1"/>
-    <col min="50" max="50" width="9.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="35.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="30.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9" style="4"/>
-    <col min="54" max="54" width="32.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="35.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="3" customWidth="1"/>
+    <col min="9" max="15" width="9" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9" style="3" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" style="3" customWidth="1"/>
+    <col min="19" max="23" width="9" style="3" customWidth="1"/>
+    <col min="24" max="24" width="12" style="3" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="14.83203125" style="3" customWidth="1"/>
+    <col min="27" max="27" width="8.33203125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="7.5" style="3" customWidth="1"/>
+    <col min="29" max="29" width="20.1640625" style="3" customWidth="1"/>
+    <col min="30" max="30" width="8.1640625" style="3" customWidth="1"/>
+    <col min="31" max="32" width="9.6640625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="8.5" style="3" customWidth="1"/>
+    <col min="34" max="34" width="8.1640625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="17.1640625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="30" style="3" customWidth="1"/>
+    <col min="37" max="37" width="13.33203125" style="3" customWidth="1"/>
+    <col min="38" max="38" width="6.83203125" style="3" customWidth="1"/>
+    <col min="39" max="39" width="22.1640625" style="3" customWidth="1"/>
+    <col min="40" max="40" width="19.1640625" style="3" customWidth="1"/>
+    <col min="41" max="41" width="13.83203125" style="3" customWidth="1"/>
+    <col min="42" max="42" width="9" style="3" customWidth="1"/>
+    <col min="43" max="43" width="13" style="3" customWidth="1"/>
+    <col min="44" max="44" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="43.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="43.6640625" style="3" customWidth="1"/>
+    <col min="49" max="49" width="24.6640625" style="3" customWidth="1"/>
+    <col min="50" max="50" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="35.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9" style="3"/>
+    <col min="54" max="54" width="32.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="35.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3490,7 +3483,7 @@
         <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>74</v>
@@ -3511,7 +3504,7 @@
         <v>79</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>80</v>
@@ -3522,123 +3515,123 @@
       <c r="N1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AK1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="AO1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ1" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="AQ1" s="24" t="s">
+      <c r="AR1" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV1" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AR1" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="AS1" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AV1" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="AY1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -3649,151 +3642,151 @@
         <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>3.8</v>
       </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
         <v>55</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <v>2</v>
       </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R2" s="3">
         <v>1</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="4">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4">
-        <v>1</v>
-      </c>
-      <c r="V2" s="4">
-        <v>1</v>
-      </c>
-      <c r="W2" s="4">
-        <v>0</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="4" t="s">
+      <c r="S2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AI2" s="3">
         <f>VLOOKUP(B2,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AJ2" s="3">
         <f>VLOOKUP(B2,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AK2" s="3">
         <v>2</v>
       </c>
-      <c r="AL2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="6">
+      <c r="AL2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="5">
         <v>44699</v>
       </c>
-      <c r="AU2" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV2" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="AW2" s="7">
+      <c r="AU2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW2" s="6">
         <v>5</v>
       </c>
-      <c r="AX2" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AY2" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>163</v>
+      <c r="AX2" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="AY2" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -3804,146 +3797,146 @@
         <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>6.1</v>
       </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
         <v>58</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>3</v>
       </c>
-      <c r="M3" s="4">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R3" s="3">
         <v>0</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="4">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4">
-        <v>1</v>
-      </c>
-      <c r="V3" s="4">
+      <c r="S3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3">
         <v>2</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="7">
         <v>3</v>
       </c>
-      <c r="X3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD3" s="4" t="s">
+      <c r="X3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AI3" s="3">
         <f>VLOOKUP(B3,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AJ3" s="3">
         <f>VLOOKUP(B3,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AK3" s="3">
         <v>4</v>
       </c>
-      <c r="AL3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR3" s="4">
+      <c r="AL3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR3" s="3">
         <v>2</v>
       </c>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="6">
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="5">
         <v>44700</v>
       </c>
-      <c r="AU3" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="AV3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>192</v>
+      <c r="AU3" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
@@ -3954,147 +3947,147 @@
         <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
         <v>14</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="J4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="3">
         <v>3</v>
       </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
         <v>2</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>2</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R4" s="3">
         <v>1</v>
       </c>
-      <c r="S4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="4">
+      <c r="S4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="3">
         <v>2</v>
       </c>
-      <c r="U4" s="4">
-        <v>1</v>
-      </c>
-      <c r="V4" s="4">
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
         <v>2</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="3">
         <v>3</v>
       </c>
-      <c r="X4" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD4" s="4" t="s">
+      <c r="X4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AE4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AF4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AG4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AH4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AI4" s="3">
         <f>VLOOKUP(B4,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>120</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AJ4" s="3">
         <f>VLOOKUP(B4,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>120</v>
       </c>
-      <c r="AK4" s="4">
+      <c r="AK4" s="3">
         <v>2</v>
       </c>
-      <c r="AL4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>106</v>
+      <c r="AL4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AR4" s="3">
         <v>2</v>
       </c>
-      <c r="AS4" s="26">
+      <c r="AS4" s="15">
         <v>180</v>
       </c>
-      <c r="AT4" s="6">
+      <c r="AT4" s="5">
         <v>44657</v>
       </c>
-      <c r="AU4" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="AV4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ4" s="4" t="s">
-        <v>157</v>
+      <c r="AU4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>34</v>
@@ -4102,145 +4095,145 @@
       <c r="C5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>140</v>
+      <c r="D5" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
         <v>2.8</v>
       </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <v>62</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>2</v>
       </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4" t="s">
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R5" s="3">
         <v>1</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
-        <v>1</v>
-      </c>
-      <c r="V5" s="4">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD5" s="4" t="s">
+      <c r="S5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AE5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AF5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AG5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AH5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AI5" s="3">
         <f>VLOOKUP(B5,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>110</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AJ5" s="3">
         <f>VLOOKUP(B5,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>110</v>
       </c>
-      <c r="AK5" s="4">
+      <c r="AK5" s="3">
         <v>6</v>
       </c>
-      <c r="AL5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM5" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="23"/>
-      <c r="AT5" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="AU5" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW5" s="7"/>
-      <c r="AZ5" s="10" t="s">
+      <c r="AL5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU5" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW5" s="6"/>
+      <c r="AZ5" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="BC5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="BC5" s="4" t="s">
-        <v>165</v>
-      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
@@ -4251,151 +4244,151 @@
         <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
         <v>1.6</v>
       </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
         <v>64</v>
       </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="s">
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>1</v>
-      </c>
-      <c r="V6" s="4">
+      <c r="S6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3">
         <v>2</v>
       </c>
-      <c r="W6" s="4">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD6" s="4" t="s">
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AE6" s="8" t="s">
+      <c r="AE6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AF6" s="4" t="s">
+      <c r="AF6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AG6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AH6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AI6" s="3">
         <f>VLOOKUP(B6,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>170</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AJ6" s="3">
         <f>VLOOKUP(B6,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>170</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AK6" s="3">
         <v>3</v>
       </c>
-      <c r="AL6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP6" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="18"/>
-      <c r="AT6" s="6">
+      <c r="AL6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="5">
         <v>44699</v>
       </c>
-      <c r="AU6" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV6" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="AW6" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AX6" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AY6" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>166</v>
+      <c r="AU6" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV6" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX6" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="AY6" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -4405,446 +4398,446 @@
       <c r="C7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>140</v>
+      <c r="D7" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
         <v>13</v>
       </c>
-      <c r="L7" s="4">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4" t="s">
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R7" s="3">
         <v>1</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4">
+      <c r="S7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
         <v>2</v>
       </c>
-      <c r="V7" s="4">
-        <v>1</v>
-      </c>
-      <c r="W7" s="4">
-        <v>0</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD7" s="4" t="s">
+      <c r="V7" s="3">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AE7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AF7" s="4" t="s">
+      <c r="AF7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AG7" s="4" t="s">
+      <c r="AG7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AH7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AI7" s="4">
+      <c r="AI7" s="3">
         <f>VLOOKUP(B7,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>190</v>
       </c>
-      <c r="AJ7" s="4">
+      <c r="AJ7" s="3">
         <f>VLOOKUP(B7,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>190</v>
       </c>
-      <c r="AK7" s="4">
+      <c r="AK7" s="3">
         <v>2</v>
       </c>
-      <c r="AL7" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM7" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP7" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ7" s="22"/>
-      <c r="AR7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="23"/>
-      <c r="AT7" s="6">
+      <c r="AL7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="5">
         <v>44699</v>
       </c>
-      <c r="AU7" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV7" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="AW7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AY7" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>193</v>
+      <c r="AU7" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV7" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY7" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>2</v>
       </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>15</v>
       </c>
-      <c r="L8" s="4">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4">
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>1</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <v>215</v>
       </c>
-      <c r="T8" s="4">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>2</v>
       </c>
-      <c r="V8" s="4">
-        <v>1</v>
-      </c>
-      <c r="W8" s="4">
-        <v>0</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD8" s="4" t="s">
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AE8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AF8" s="4" t="s">
+      <c r="AF8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AG8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AH8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AI8" s="4">
+      <c r="AI8" s="3">
         <f>VLOOKUP(B8,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="AJ8" s="4">
+      <c r="AJ8" s="3">
         <f>VLOOKUP(B8,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="AK8" s="4">
+      <c r="AK8" s="3">
         <v>2</v>
       </c>
-      <c r="AL8" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM8" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ8" s="22"/>
-      <c r="AR8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="23"/>
-      <c r="AT8" s="6">
+      <c r="AL8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="5">
         <v>44699</v>
       </c>
-      <c r="AU8" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV8" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="AW8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="AX8" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ8" s="4" t="s">
-        <v>167</v>
+      <c r="AU8" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV8" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW8" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
         <v>2.5</v>
       </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
         <v>7</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>2</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4" t="s">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R9" s="3">
         <v>1</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4">
+      <c r="S9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>2</v>
       </c>
-      <c r="V9" s="4">
-        <v>1</v>
-      </c>
-      <c r="W9" s="4">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD9" s="4" t="s">
+      <c r="V9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE9" s="4" t="s">
+      <c r="AE9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AF9" s="4" t="s">
+      <c r="AF9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AG9" s="4" t="s">
+      <c r="AG9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AH9" s="4" t="s">
+      <c r="AH9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AI9" s="4">
+      <c r="AI9" s="3">
         <f>VLOOKUP(B9,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>270</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AJ9" s="3">
         <f>VLOOKUP(B9,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>270</v>
       </c>
-      <c r="AK9" s="4">
+      <c r="AK9" s="3">
         <v>2</v>
       </c>
-      <c r="AL9" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM9" s="4" t="s">
+      <c r="AL9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="15">
         <v>140</v>
       </c>
-      <c r="AN9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="26">
-        <v>140</v>
-      </c>
-      <c r="AT9" s="6">
+      <c r="AT9" s="5">
         <v>44657</v>
       </c>
-      <c r="AU9" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="AV9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW9" s="7"/>
-      <c r="AX9" s="35" t="s">
+      <c r="AU9" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY9" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="AY9" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="AZ9" s="4" t="s">
-        <v>156</v>
+      <c r="AZ9" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -4855,143 +4848,143 @@
         <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
         <v>1.4</v>
       </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>3</v>
       </c>
-      <c r="L10" s="4">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4" t="s">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R10" s="3">
         <v>1</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4">
+      <c r="S10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>2</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <v>2</v>
       </c>
-      <c r="W10" s="4">
-        <v>0</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD10" s="4" t="s">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE10" s="4" t="s">
+      <c r="AE10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AF10" s="4" t="s">
+      <c r="AF10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AG10" s="4" t="s">
+      <c r="AG10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AH10" s="4" t="s">
+      <c r="AH10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AI10" s="4">
+      <c r="AI10" s="3">
         <f>VLOOKUP(B10,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>110</v>
       </c>
-      <c r="AJ10" s="4">
+      <c r="AJ10" s="3">
         <f>VLOOKUP(B10,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>110</v>
       </c>
-      <c r="AK10" s="4">
+      <c r="AK10" s="3">
         <v>2</v>
       </c>
-      <c r="AL10" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM10" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ10" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="18"/>
-      <c r="AT10" s="6">
+      <c r="AL10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="5">
         <v>44700</v>
       </c>
-      <c r="AU10" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="AV10" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW10" s="7"/>
-      <c r="AX10" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="AZ10" s="4" t="s">
-        <v>168</v>
+      <c r="AU10" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ10" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -5002,3029 +4995,3012 @@
         <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
         <v>2</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="4" t="s">
+      <c r="L11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4" t="s">
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R11" s="3">
         <v>1</v>
       </c>
-      <c r="S11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4">
+      <c r="S11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
         <v>2</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <v>2</v>
       </c>
-      <c r="W11" s="4">
-        <v>0</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD11" s="4" t="s">
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE11" s="4" t="s">
+      <c r="AE11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AF11" s="4" t="s">
+      <c r="AF11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AG11" s="4" t="s">
+      <c r="AG11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AH11" s="4" t="s">
+      <c r="AH11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AI11" s="4">
+      <c r="AI11" s="3">
         <f>VLOOKUP(B11,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="AJ11" s="4">
+      <c r="AJ11" s="3">
         <f>VLOOKUP(B11,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="AK11" s="4">
+      <c r="AK11" s="3">
         <v>2</v>
       </c>
-      <c r="AL11" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM11" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO11" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ11" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="18"/>
-      <c r="AT11" s="6">
+      <c r="AL11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="5">
         <v>44700</v>
       </c>
-      <c r="AU11" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="AV11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="AZ11" s="4" t="s">
-        <v>169</v>
+      <c r="AU11" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ11" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="27" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>14</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>2</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4" t="s">
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R12" s="3">
         <v>1</v>
       </c>
-      <c r="S12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4">
-        <v>1</v>
-      </c>
-      <c r="V12" s="4">
+      <c r="S12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
         <v>2</v>
       </c>
-      <c r="W12" s="4">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD12" s="4" t="s">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE12" s="4" t="s">
+      <c r="AE12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AF12" s="4" t="s">
+      <c r="AF12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AG12" s="4" t="s">
+      <c r="AG12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AH12" s="4" t="s">
+      <c r="AH12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AI12" s="4">
+      <c r="AI12" s="3">
         <f>VLOOKUP(B12,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="AJ12" s="4">
+      <c r="AJ12" s="3">
         <f>VLOOKUP(B12,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="AK12" s="4">
+      <c r="AK12" s="3">
         <v>3</v>
       </c>
-      <c r="AL12" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM12" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ12" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="18"/>
-      <c r="AT12" s="6">
+      <c r="AL12" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="5">
         <v>44699</v>
       </c>
-      <c r="AU12" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="AV12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="AZ12" s="4" t="s">
-        <v>170</v>
+      <c r="AU12" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ12" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
         <v>0.6</v>
       </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
         <v>34</v>
       </c>
-      <c r="L13" s="4">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4" t="s">
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T13" s="4">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4">
-        <v>1</v>
-      </c>
-      <c r="V13" s="4">
+      <c r="S13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
         <v>2</v>
       </c>
-      <c r="W13" s="4">
-        <v>0</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD13" s="4" t="s">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AE13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF13" s="4" t="s">
+      <c r="AE13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AG13" s="4" t="s">
+      <c r="AG13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AH13" s="4" t="s">
+      <c r="AH13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AI13" s="4">
+      <c r="AI13" s="3">
         <f>VLOOKUP(B13,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AJ13" s="3">
         <f>VLOOKUP(B13,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="AK13" s="4">
+      <c r="AK13" s="3">
         <v>2</v>
       </c>
-      <c r="AL13" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ13" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="18"/>
-      <c r="AT13" s="6">
+      <c r="AL13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="5">
         <v>44700</v>
       </c>
-      <c r="AU13" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV13" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="AW13" s="7">
+      <c r="AU13" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV13" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW13" s="6">
         <v>5</v>
       </c>
-      <c r="AX13" s="35" t="s">
+      <c r="AX13" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY13" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="AY13" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="AZ13" s="4" t="s">
-        <v>171</v>
+      <c r="AZ13" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>2</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>1.8</v>
       </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>8</v>
       </c>
-      <c r="L14" s="4">
-        <v>1</v>
-      </c>
-      <c r="M14" s="4">
-        <v>1</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="4">
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="3">
         <v>60</v>
       </c>
-      <c r="T14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI14" s="4">
+      <c r="T14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI14" s="3">
         <f>VLOOKUP(B14,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>170</v>
       </c>
-      <c r="AJ14" s="4">
+      <c r="AJ14" s="3">
         <f>VLOOKUP(B14,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>170</v>
       </c>
-      <c r="AK14" s="4">
+      <c r="AK14" s="3">
         <v>2</v>
       </c>
-      <c r="AL14" s="4" t="s">
+      <c r="AL14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AM14" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ14" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR14" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS14" s="18"/>
-      <c r="AT14" s="6">
+      <c r="AR14" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="5">
         <v>44719</v>
       </c>
-      <c r="AU14" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AV14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW14" s="7"/>
-      <c r="AX14" s="35" t="s">
-        <v>221</v>
+      <c r="AU14" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="29" t="s">
+        <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="27" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>188</v>
+      <c r="D15" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>2</v>
       </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>40</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>3</v>
       </c>
-      <c r="M15" s="4">
-        <v>1</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" s="4" t="s">
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI15" s="4">
+      <c r="S15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI15" s="3">
         <f>VLOOKUP(B15,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>180</v>
       </c>
-      <c r="AJ15" s="4">
+      <c r="AJ15" s="3">
         <f>VLOOKUP(B15,'[1]PW+ Search vom 12.06.2020'!$A:$I,9,FALSE)</f>
         <v>180</v>
       </c>
-      <c r="AK15" s="4">
+      <c r="AK15" s="3">
         <v>2</v>
       </c>
-      <c r="AL15" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM15" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ15" s="22"/>
-      <c r="AR15" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS15" s="23"/>
-      <c r="AT15" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="AU15" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="AV15" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="AW15" s="7"/>
-      <c r="BB15" s="11" t="s">
-        <v>155</v>
+      <c r="AL15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS15" s="20"/>
+      <c r="AT15" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU15" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="AV15" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW15" s="6"/>
+      <c r="BB15" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>2</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>3.8</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="J16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="3">
         <v>7</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>3</v>
       </c>
-      <c r="M16" s="4">
-        <v>1</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="4">
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="3">
         <v>0</v>
       </c>
       <c r="R16" s="3">
         <v>1</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="3">
         <v>52</v>
       </c>
-      <c r="T16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL16" s="4" t="s">
+      <c r="T16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ16" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AM16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN16" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR16" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS16" s="18">
+      <c r="AR16" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS16" s="15">
         <v>1480</v>
       </c>
-      <c r="AT16" s="6">
+      <c r="AT16" s="5">
         <v>44821</v>
       </c>
-      <c r="AU16" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="AV16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW16" s="7"/>
-      <c r="AX16" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="BB16" s="11" t="s">
-        <v>160</v>
+      <c r="AU16" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AV16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW16" s="6"/>
+      <c r="AX16" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB16" s="10" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>4.5</v>
       </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>88</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>2</v>
       </c>
-      <c r="M17" s="4">
-        <v>1</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1</v>
       </c>
       <c r="R17" s="3">
         <v>1</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="3">
         <v>46</v>
       </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4">
-        <v>1</v>
-      </c>
-      <c r="V17" s="4">
-        <v>1</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD17" s="4" t="s">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AE17" s="4" t="s">
+      <c r="AE17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AF17" s="4" t="s">
+      <c r="AF17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AG17" s="4" t="s">
+      <c r="AG17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AH17" s="4" t="s">
+      <c r="AH17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AL17" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ17" s="16" t="s">
+      <c r="AL17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ17" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="AR17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="AT17" s="6">
+      <c r="AT17" s="5">
         <v>44821</v>
       </c>
-      <c r="AU17" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="AV17" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW17" s="7"/>
-      <c r="AX17" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="BB17" s="11" t="s">
-        <v>162</v>
+      <c r="AU17" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB17" s="10" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
         <v>7</v>
       </c>
-      <c r="J18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4">
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
         <v>39</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>2</v>
       </c>
-      <c r="M18" s="4">
-        <v>1</v>
-      </c>
-      <c r="N18" s="4">
-        <v>1</v>
-      </c>
-      <c r="O18" s="4">
-        <v>1</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="4">
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1</v>
       </c>
       <c r="R18" s="3">
         <v>1</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="3">
         <v>46</v>
       </c>
-      <c r="T18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL18" s="4" t="s">
+      <c r="T18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ18" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AM18" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN18" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR18" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS18" s="18">
+      <c r="AR18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS18" s="15">
         <v>605</v>
       </c>
-      <c r="AT18" s="6">
+      <c r="AT18" s="5">
         <v>44821</v>
       </c>
-      <c r="AU18" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="AV18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW18" s="7"/>
-      <c r="AX18" s="35" t="s">
-        <v>144</v>
+      <c r="AU18" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="29" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>2</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>2.5</v>
       </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
         <v>2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>2</v>
       </c>
-      <c r="M19" s="4">
-        <v>1</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q19" s="4">
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="3">
         <v>0</v>
       </c>
       <c r="R19" s="3">
         <v>0</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="3">
         <v>131</v>
       </c>
-      <c r="T19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL19" s="4" t="s">
+      <c r="T19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ19" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AM19" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ19" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR19" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS19" s="18">
+      <c r="AR19" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS19" s="15">
         <v>664</v>
       </c>
-      <c r="AT19" s="6">
+      <c r="AT19" s="5">
         <v>44821</v>
       </c>
-      <c r="AU19" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="AV19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW19" s="7"/>
-      <c r="AX19" s="35" t="s">
-        <v>144</v>
+      <c r="AU19" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW19" s="6"/>
+      <c r="AX19" s="29" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="4">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
         <v>1.2</v>
       </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>61</v>
       </c>
-      <c r="L20" s="4">
-        <v>1</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4">
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>1</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="3">
         <v>51</v>
       </c>
-      <c r="T20" s="4">
-        <v>0</v>
-      </c>
-      <c r="U20" s="4">
-        <v>1</v>
-      </c>
-      <c r="V20" s="4">
-        <v>1</v>
-      </c>
-      <c r="W20" s="4">
-        <v>0</v>
-      </c>
-      <c r="X20" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD20" s="4" t="s">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AE20" s="4" t="s">
+      <c r="AE20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AF20" s="4" t="s">
+      <c r="AF20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AG20" s="4" t="s">
+      <c r="AG20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AH20" s="4" t="s">
+      <c r="AH20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AL20" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN20" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ20" s="22"/>
-      <c r="AR20" s="22">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="23"/>
-      <c r="AT20" s="27" t="s">
-        <v>216</v>
+      <c r="AL20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="20"/>
+      <c r="AT20" s="23" t="s">
+        <v>215</v>
       </c>
       <c r="AU20" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AV20" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="AW20" s="7"/>
+        <v>201</v>
+      </c>
+      <c r="AV20" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW20" s="6"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="4">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
         <v>4</v>
       </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>57</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>2</v>
       </c>
-      <c r="M21" s="4">
-        <v>1</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>1</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q21" s="4">
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>1</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="3">
         <v>150</v>
       </c>
-      <c r="T21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL21" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ21" s="4" t="s">
+      <c r="T21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL21" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AR21" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS21" s="18">
+      <c r="AM21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ21" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR21" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS21" s="15">
         <v>264</v>
       </c>
-      <c r="AT21" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="AU21" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="AV21" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="AW21" s="7"/>
+      <c r="AT21" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV21" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW21" s="6"/>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>109</v>
+      <c r="B22" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>2</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>2.5</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="4">
+      <c r="J22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="3">
         <v>10</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>3</v>
       </c>
-      <c r="M22" s="4">
-        <v>1</v>
-      </c>
-      <c r="N22" s="4">
-        <v>1</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4">
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="3">
         <v>125</v>
       </c>
-      <c r="T22" s="4">
-        <v>0</v>
-      </c>
-      <c r="U22" s="4">
-        <v>1</v>
-      </c>
-      <c r="V22" s="4">
-        <v>0</v>
-      </c>
-      <c r="W22" s="4">
-        <v>0</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y22" s="4">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>1</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y22" s="3">
         <v>98</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="Z22" s="3">
         <v>47</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AA22" s="3">
         <v>0.40332340137599898</v>
       </c>
-      <c r="AB22" s="4">
+      <c r="AB22" s="3">
         <v>0.216965606829817</v>
       </c>
-      <c r="AC22" s="4" t="s">
+      <c r="AC22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM22" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AD22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL22" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM22" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN22" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ22" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="18">
+      <c r="AN22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="15">
         <v>454</v>
       </c>
-      <c r="AT22" s="6">
+      <c r="AT22" s="5">
         <v>44821</v>
       </c>
-      <c r="AU22" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="AV22" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW22" s="7"/>
-      <c r="AX22" s="35" t="s">
-        <v>144</v>
+      <c r="AU22" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="29" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>110</v>
+      <c r="B23" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="4">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
         <v>2.1</v>
       </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>37</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>2</v>
       </c>
-      <c r="M23" s="4">
-        <v>0</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23" s="4">
-        <v>0</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="4">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>1</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="3">
         <v>117</v>
       </c>
-      <c r="T23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL23" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM23" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ23" s="4" t="s">
+      <c r="T23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL23" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AR23" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS23" s="18">
+      <c r="AM23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR23" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS23" s="15">
         <v>1390</v>
       </c>
-      <c r="AT23" s="6">
+      <c r="AT23" s="5">
         <v>44821</v>
       </c>
-      <c r="AU23" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="AV23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW23" s="7"/>
-      <c r="AX23" s="35" t="s">
-        <v>144</v>
+      <c r="AU23" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="29" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>187</v>
+      <c r="D24" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>2</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>5.5</v>
       </c>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4">
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
         <v>6</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>3</v>
       </c>
-      <c r="M24" s="4">
-        <v>1</v>
-      </c>
-      <c r="N24" s="4">
-        <v>1</v>
-      </c>
-      <c r="O24" s="11">
-        <v>1</v>
-      </c>
-      <c r="P24" s="11">
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="10">
+        <v>1</v>
+      </c>
+      <c r="P24" s="10">
         <v>4</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <v>1</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="3">
         <v>9</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="3">
         <v>4</v>
       </c>
-      <c r="U24" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="V24" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="W24" s="4">
+      <c r="U24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="W24" s="3">
         <v>4</v>
       </c>
-      <c r="X24" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y24" s="4">
+      <c r="X24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y24" s="3">
         <v>68</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="Z24" s="3">
         <v>65</v>
       </c>
-      <c r="AA24" s="4">
+      <c r="AA24" s="3">
         <v>0.67932974429931403</v>
       </c>
-      <c r="AB24" s="4">
+      <c r="AB24" s="3">
         <v>9.2132370124333798E-3</v>
       </c>
-      <c r="AC24" s="4" t="s">
+      <c r="AC24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM24" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AD24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL24" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM24" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN24" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ24" s="22"/>
-      <c r="AR24" s="22">
+      <c r="AN24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19">
         <v>2</v>
       </c>
-      <c r="AS24" s="23"/>
-      <c r="AT24" s="27" t="s">
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="23" t="s">
         <v>33</v>
       </c>
       <c r="AU24" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AV24" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW24" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="AV24" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW24" s="6"/>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>2</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>6</v>
       </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
         <v>24</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <v>3</v>
       </c>
-      <c r="M25" s="4">
-        <v>1</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0</v>
-      </c>
-      <c r="O25" s="11">
-        <v>1</v>
-      </c>
-      <c r="P25" s="11">
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="10">
+        <v>1</v>
+      </c>
+      <c r="P25" s="10">
         <v>2</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="3">
         <v>1</v>
       </c>
       <c r="R25" s="3">
         <v>0</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="3">
         <v>48</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="3">
         <v>2</v>
       </c>
-      <c r="U25" s="4">
-        <v>1</v>
-      </c>
-      <c r="V25" s="4">
-        <v>1</v>
-      </c>
-      <c r="W25" s="4">
+      <c r="U25" s="3">
+        <v>1</v>
+      </c>
+      <c r="V25" s="3">
+        <v>1</v>
+      </c>
+      <c r="W25" s="3">
         <v>2</v>
       </c>
-      <c r="X25" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y25" s="4">
+      <c r="X25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y25" s="3">
         <v>67</v>
       </c>
-      <c r="Z25" s="4">
+      <c r="Z25" s="3">
         <v>64</v>
       </c>
-      <c r="AA25" s="4">
+      <c r="AA25" s="3">
         <v>0.62739362708143998</v>
       </c>
-      <c r="AB25" s="4">
+      <c r="AB25" s="3">
         <v>4.6699841722322097E-2</v>
       </c>
-      <c r="AC25" s="4" t="s">
+      <c r="AC25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM25" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AD25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL25" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM25" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN25" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ25" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS25" s="18">
+      <c r="AN25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="15">
         <v>415</v>
       </c>
-      <c r="AT25" s="6">
+      <c r="AT25" s="5">
         <v>44821</v>
       </c>
-      <c r="AU25" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="AV25" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW25" s="7"/>
-      <c r="AX25" s="35" t="s">
-        <v>144</v>
+      <c r="AU25" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW25" s="6"/>
+      <c r="AX25" s="29" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>187</v>
+      <c r="D26" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="F26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>2</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>6</v>
       </c>
-      <c r="J26" s="4">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4">
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
         <v>2</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="3">
         <v>3</v>
       </c>
-      <c r="M26" s="4">
-        <v>1</v>
-      </c>
-      <c r="N26" s="4">
-        <v>1</v>
-      </c>
-      <c r="O26" s="4">
-        <v>0</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q26" s="4">
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1</v>
       </c>
       <c r="R26" s="3">
         <v>1</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="3">
         <v>53</v>
       </c>
-      <c r="T26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y26" s="4">
+      <c r="T26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y26" s="3">
         <v>35</v>
       </c>
-      <c r="Z26" s="4">
+      <c r="Z26" s="3">
         <v>95</v>
       </c>
-      <c r="AA26" s="4">
+      <c r="AA26" s="3">
         <v>0.30867153820885201</v>
       </c>
-      <c r="AB26" s="4">
+      <c r="AB26" s="3">
         <v>0.118427713551206</v>
       </c>
-      <c r="AC26" s="4" t="s">
+      <c r="AC26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AD26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL26" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM26" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN26" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="22"/>
-      <c r="AR26" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS26" s="23"/>
-      <c r="AT26" s="27" t="s">
+      <c r="AN26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS26" s="20"/>
+      <c r="AT26" s="23" t="s">
         <v>33</v>
       </c>
       <c r="AU26" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AV26" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW26" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="AV26" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW26" s="6"/>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>111</v>
+      <c r="B27" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="4">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4">
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
         <v>1.4</v>
       </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4">
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>28</v>
       </c>
-      <c r="L27" s="4">
-        <v>1</v>
-      </c>
-      <c r="M27" s="4">
-        <v>0</v>
-      </c>
-      <c r="N27" s="4">
-        <v>0</v>
-      </c>
-      <c r="O27" s="4">
-        <v>0</v>
-      </c>
-      <c r="P27" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="4">
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>1</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S27" s="3">
         <v>80</v>
       </c>
-      <c r="T27" s="4">
-        <v>0</v>
-      </c>
-      <c r="U27" s="4">
-        <v>1</v>
-      </c>
-      <c r="V27" s="4">
-        <v>1</v>
-      </c>
-      <c r="W27" s="4">
-        <v>0</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD27" s="4" t="s">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1</v>
+      </c>
+      <c r="V27" s="3">
+        <v>1</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AE27" s="4" t="s">
+      <c r="AE27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF27" s="4" t="s">
+      <c r="AF27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AG27" s="4" t="s">
+      <c r="AG27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AH27" s="4" t="s">
+      <c r="AH27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AL27" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM27" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="21" t="s">
+      <c r="AL27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ27" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR27" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="AT27" s="5">
+        <v>44821</v>
+      </c>
+      <c r="AU27" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV27" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AR27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AT27" s="6">
-        <v>44821</v>
-      </c>
-      <c r="AU27" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="AV27" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="AW27" s="7"/>
+      <c r="AW27" s="6"/>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>2</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>2.1</v>
       </c>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="4">
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
         <v>29</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="3">
         <v>2</v>
       </c>
-      <c r="M28" s="4">
-        <v>0</v>
-      </c>
-      <c r="N28" s="4">
-        <v>0</v>
-      </c>
-      <c r="O28" s="12">
-        <v>1</v>
-      </c>
-      <c r="P28" s="11">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
+        <v>1</v>
+      </c>
+      <c r="P28" s="10">
         <v>2</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="3">
         <v>1</v>
       </c>
       <c r="R28" s="3">
         <v>1</v>
       </c>
-      <c r="S28" s="4">
+      <c r="S28" s="3">
         <v>119</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="3">
         <v>2</v>
       </c>
-      <c r="U28" s="4">
-        <v>0</v>
-      </c>
-      <c r="V28" s="4">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
         <v>2</v>
       </c>
-      <c r="W28" s="4">
+      <c r="W28" s="3">
         <v>2</v>
       </c>
-      <c r="X28" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y28" s="4">
+      <c r="X28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y28" s="3">
         <v>63</v>
       </c>
-      <c r="Z28" s="4">
+      <c r="Z28" s="3">
         <v>60</v>
       </c>
-      <c r="AA28" s="4">
+      <c r="AA28" s="3">
         <v>0.55457059867339997</v>
       </c>
-      <c r="AB28" s="4">
+      <c r="AB28" s="3">
         <v>7.9009998998111804E-19</v>
       </c>
-      <c r="AC28" s="4" t="s">
+      <c r="AC28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM28" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AD28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL28" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM28" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN28" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS28" s="18">
+      <c r="AN28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS28" s="15">
         <v>571</v>
       </c>
-      <c r="AT28" s="6">
+      <c r="AT28" s="5">
         <v>44821</v>
       </c>
-      <c r="AU28" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="AV28" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW28" s="7"/>
-      <c r="AX28" s="35" t="s">
-        <v>144</v>
+      <c r="AU28" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW28" s="6"/>
+      <c r="AX28" s="29" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>2</v>
       </c>
-      <c r="I29" s="4">
-        <v>1</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0</v>
-      </c>
-      <c r="K29" s="4">
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>15</v>
       </c>
-      <c r="L29" s="4">
-        <v>1</v>
-      </c>
-      <c r="M29" s="4">
-        <v>0</v>
-      </c>
-      <c r="N29" s="4">
-        <v>0</v>
-      </c>
-      <c r="O29" s="4">
-        <v>0</v>
-      </c>
-      <c r="P29" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="4">
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
         <v>1</v>
       </c>
-      <c r="S29" s="4">
+      <c r="S29" s="3">
         <v>215</v>
       </c>
-      <c r="T29" s="4">
-        <v>0</v>
-      </c>
-      <c r="U29" s="4">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>2</v>
       </c>
-      <c r="V29" s="4">
-        <v>1</v>
-      </c>
-      <c r="W29" s="4">
-        <v>0</v>
-      </c>
-      <c r="X29" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD29" s="4" t="s">
+      <c r="V29" s="3">
+        <v>1</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AE29" s="4" t="s">
+      <c r="AE29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AF29" s="4" t="s">
+      <c r="AF29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AG29" s="4" t="s">
+      <c r="AG29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AH29" s="4" t="s">
+      <c r="AH29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AL29" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM29" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN29" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="22"/>
-      <c r="AR29" s="22">
-        <v>0</v>
-      </c>
-      <c r="AS29" s="23"/>
-      <c r="AT29" s="27" t="s">
+      <c r="AL29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="20"/>
+      <c r="AT29" s="23" t="s">
         <v>33</v>
       </c>
       <c r="AU29" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="5"/>
-      <c r="AX29" s="35" t="s">
-        <v>144</v>
+        <v>206</v>
+      </c>
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="29" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="4">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
         <v>0.9</v>
       </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
-        <v>1</v>
-      </c>
-      <c r="L30" s="4">
-        <v>1</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q30" s="4">
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="3">
         <v>0</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S30" s="4">
+      <c r="S30" s="3">
         <v>156</v>
       </c>
-      <c r="T30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL30" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM30" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN30" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ30" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR30" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS30" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="AT30" s="6">
+      <c r="T30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ30" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR30" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS30" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT30" s="5">
         <v>44821</v>
       </c>
-      <c r="AU30" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="AV30" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="AW30" s="5"/>
-      <c r="AX30" s="35" t="s">
-        <v>144</v>
+      <c r="AU30" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV30" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW30" s="4"/>
+      <c r="AX30" s="29" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>112</v>
+      <c r="B31" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <v>2</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>6.5</v>
       </c>
-      <c r="J31" s="4">
-        <v>1</v>
-      </c>
-      <c r="K31" s="4">
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
         <v>51</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="3">
         <v>2</v>
       </c>
-      <c r="M31" s="4">
-        <v>0</v>
-      </c>
-      <c r="N31" s="4">
-        <v>0</v>
-      </c>
-      <c r="O31" s="4">
-        <v>0</v>
-      </c>
-      <c r="P31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="4" t="s">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R31" s="3">
         <v>0</v>
       </c>
-      <c r="S31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T31" s="4">
-        <v>0</v>
-      </c>
-      <c r="U31" s="4">
-        <v>1</v>
-      </c>
-      <c r="V31" s="4">
+      <c r="S31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>1</v>
+      </c>
+      <c r="V31" s="3">
         <v>3</v>
       </c>
-      <c r="W31" s="4">
-        <v>0</v>
-      </c>
-      <c r="X31" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD31" s="4" t="s">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AE31" s="4" t="s">
+      <c r="AE31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AF31" s="4" t="s">
+      <c r="AF31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AG31" s="4" t="s">
+      <c r="AG31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AH31" s="4" t="s">
+      <c r="AH31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AL31" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM31" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN31" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ31" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS31" s="18">
+      <c r="AL31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="15">
         <v>1490</v>
       </c>
-      <c r="AT31" s="6">
+      <c r="AT31" s="5">
         <v>44719</v>
       </c>
       <c r="AU31" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV31" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="AW31" s="14"/>
-      <c r="AX31" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY31" s="35" t="s">
-        <v>222</v>
+        <v>190</v>
+      </c>
+      <c r="AV31" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW31" s="12"/>
+      <c r="AX31" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY31" s="29" t="s">
+        <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>113</v>
+      <c r="B32" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <v>2</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <v>5.6</v>
       </c>
-      <c r="J32" s="4">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>7</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="3">
         <v>2</v>
       </c>
-      <c r="M32" s="4">
-        <v>1</v>
-      </c>
-      <c r="N32" s="4">
-        <v>0</v>
-      </c>
-      <c r="O32" s="4">
-        <v>0</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q32" s="4">
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S32" s="4">
+      <c r="S32" s="3">
         <v>99</v>
       </c>
-      <c r="T32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL32" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM32" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN32" s="4" t="s">
-        <v>106</v>
+      <c r="T32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL32" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN32" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="AQ32" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR32" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS32" s="26">
+        <v>145</v>
+      </c>
+      <c r="AR32" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS32" s="15">
         <v>101</v>
       </c>
-      <c r="AT32" s="6">
+      <c r="AT32" s="5">
         <v>44657</v>
       </c>
-      <c r="AU32" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="AV32" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW32" s="14"/>
-      <c r="AX32" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY32" s="4" t="s">
-        <v>158</v>
+      <c r="AU32" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AV32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW32" s="12"/>
+      <c r="AX32" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY32" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="33" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="AU33" s="9"/>
-      <c r="AV33" s="9"/>
+    <row r="33" spans="4:48" x14ac:dyDescent="0.2">
+      <c r="AU33" s="8"/>
+      <c r="AV33" s="8"/>
     </row>
-    <row r="34" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C35" s="3"/>
-      <c r="D35" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="25"/>
+    <row r="35" spans="4:48" x14ac:dyDescent="0.2">
+      <c r="D35" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS35" s="22"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:LY16">
@@ -8033,47 +8009,47 @@
     <sortCondition descending="1" sortBy="cellColor" ref="AF2:AF16" dxfId="13"/>
     <sortCondition descending="1" ref="AF2:AF16"/>
   </sortState>
-  <conditionalFormatting sqref="AD2:AD34 AE2:AF37 AG24:AG34 AG2:AH33">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
-      <formula>"Weak"</formula>
+  <conditionalFormatting sqref="G2:G33">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+      <formula>"NET G3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"SingleCells"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>"Positive"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG24:AG34 AG2:AH33">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"Single"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G33">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
-      <formula>"NET G1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"NET G2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"NET G3"</formula>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"NET G1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J33 M2:N33">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L35">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>2</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG2:AH33 AD2:AD34 AE2:AF37 AG24:AG34">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>"Weak"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>3</formula>
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+      <formula>"SingleCells"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+      <formula>"Positive"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG2:AH33 AG24:AG34">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+      <formula>"Single"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW1 B1">
@@ -8093,9 +8069,9 @@
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8103,7 +8079,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -8111,10 +8087,10 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -8122,10 +8098,10 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -8133,29 +8109,29 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>112</v>
+      <c r="B5" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>113</v>
+      <c r="B6" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/meta_data/samples for DESI and RNA extraction.xlsx
+++ b/meta_data/samples for DESI and RNA extraction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/balu/Desktop/PanNet_Analysis/meta_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\br23n469\Desktop\PanNet_RNASeq_Analysis\meta_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2F3958-D8A9-514F-8A55-A50EB02A7F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4205533C-9F83-43D7-9709-1720069E6711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="1335" windowWidth="21585" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -774,9 +774,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -926,53 +933,53 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -999,6 +1006,70 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1039,70 +1110,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3420,59 +3427,59 @@
   <dimension ref="A1:BC35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="3" customWidth="1"/>
     <col min="9" max="15" width="9" style="3" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.625" style="3" customWidth="1"/>
     <col min="17" max="17" width="9" style="3" customWidth="1"/>
-    <col min="18" max="18" width="22.6640625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="22.625" style="3" customWidth="1"/>
     <col min="19" max="23" width="9" style="3" customWidth="1"/>
     <col min="24" max="24" width="12" style="3" customWidth="1"/>
-    <col min="25" max="25" width="15.6640625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="14.83203125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="8.33203125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="15.75" style="3" customWidth="1"/>
+    <col min="26" max="26" width="14.875" style="3" customWidth="1"/>
+    <col min="27" max="27" width="8.375" style="3" customWidth="1"/>
     <col min="28" max="28" width="7.5" style="3" customWidth="1"/>
-    <col min="29" max="29" width="20.1640625" style="3" customWidth="1"/>
-    <col min="30" max="30" width="8.1640625" style="3" customWidth="1"/>
-    <col min="31" max="32" width="9.6640625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="20.25" style="3" customWidth="1"/>
+    <col min="30" max="30" width="8.125" style="3" customWidth="1"/>
+    <col min="31" max="32" width="9.75" style="3" customWidth="1"/>
     <col min="33" max="33" width="8.5" style="3" customWidth="1"/>
-    <col min="34" max="34" width="8.1640625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="17.1640625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="8.125" style="3" customWidth="1"/>
+    <col min="35" max="35" width="17.25" style="3" customWidth="1"/>
     <col min="36" max="36" width="30" style="3" customWidth="1"/>
-    <col min="37" max="37" width="13.33203125" style="3" customWidth="1"/>
-    <col min="38" max="38" width="6.83203125" style="3" customWidth="1"/>
-    <col min="39" max="39" width="22.1640625" style="3" customWidth="1"/>
-    <col min="40" max="40" width="19.1640625" style="3" customWidth="1"/>
-    <col min="41" max="41" width="13.83203125" style="3" customWidth="1"/>
+    <col min="37" max="37" width="13.375" style="3" customWidth="1"/>
+    <col min="38" max="38" width="6.875" style="3" customWidth="1"/>
+    <col min="39" max="39" width="22.25" style="3" customWidth="1"/>
+    <col min="40" max="40" width="19.25" style="3" customWidth="1"/>
+    <col min="41" max="41" width="13.875" style="3" customWidth="1"/>
     <col min="42" max="42" width="9" style="3" customWidth="1"/>
     <col min="43" max="43" width="13" style="3" customWidth="1"/>
-    <col min="44" max="44" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="43.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="43.6640625" style="3" customWidth="1"/>
-    <col min="49" max="49" width="24.6640625" style="3" customWidth="1"/>
-    <col min="50" max="50" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="35.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="43.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="43.75" style="3" customWidth="1"/>
+    <col min="49" max="49" width="24.625" style="3" customWidth="1"/>
+    <col min="50" max="50" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="35.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="30.75" style="3" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="9" style="3"/>
-    <col min="54" max="54" width="32.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="32.375" style="3" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="35.5" style="3" bestFit="1" customWidth="1"/>
     <col min="56" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3631,7 +3638,7 @@
       </c>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -3786,7 +3793,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -3936,7 +3943,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
@@ -4085,7 +4092,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>113</v>
       </c>
@@ -4233,7 +4240,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
@@ -4388,7 +4395,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -4538,7 +4545,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -4685,7 +4692,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -4837,7 +4844,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -4984,7 +4991,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -5134,7 +5141,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -5281,7 +5288,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -5433,7 +5440,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -5577,7 +5584,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
@@ -5719,7 +5726,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -5857,7 +5864,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -5995,7 +6002,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -6130,7 +6137,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -6265,7 +6272,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
@@ -6393,7 +6400,7 @@
       </c>
       <c r="AW20" s="6"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -6525,7 +6532,7 @@
       </c>
       <c r="AW21" s="6"/>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -6660,7 +6667,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
@@ -6795,7 +6802,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -6923,7 +6930,7 @@
       </c>
       <c r="AW24" s="6"/>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -7058,7 +7065,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
@@ -7186,7 +7193,7 @@
       </c>
       <c r="AW26" s="6"/>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
@@ -7318,7 +7325,7 @@
       </c>
       <c r="AW27" s="6"/>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -7453,7 +7460,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
@@ -7581,7 +7588,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -7716,7 +7723,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>49</v>
       </c>
@@ -7854,7 +7861,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -7992,11 +7999,11 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="4:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:48" x14ac:dyDescent="0.25">
       <c r="AU33" s="8"/>
       <c r="AV33" s="8"/>
     </row>
-    <row r="35" spans="4:48" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D35" s="9" t="s">
         <v>189</v>
       </c>
@@ -8009,47 +8016,47 @@
     <sortCondition descending="1" sortBy="cellColor" ref="AF2:AF16" dxfId="13"/>
     <sortCondition descending="1" ref="AF2:AF16"/>
   </sortState>
+  <conditionalFormatting sqref="AD2:AD34 AE2:AF37 AG24:AG34 AG2:AH33">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+      <formula>"Weak"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"SingleCells"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"Positive"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG24:AG34 AG2:AH33">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Single"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G2:G33">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
-      <formula>"NET G3"</formula>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>"NET G1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"NET G2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
-      <formula>"NET G1"</formula>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"NET G3"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J33 M2:N33">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L35">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>3</formula>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AH33 AD2:AD34 AE2:AF37 AG24:AG34">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
-      <formula>"Weak"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
-      <formula>"SingleCells"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
-      <formula>"Positive"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AH33 AG24:AG34">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
-      <formula>"Single"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW1 B1">
@@ -8069,9 +8076,9 @@
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8079,7 +8086,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -8090,7 +8097,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -8101,7 +8108,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -8112,7 +8119,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
@@ -8123,7 +8130,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
